--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>17-03</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -176,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -539,34 +545,42 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
-        <f>10 * SUM(B4:B8)</f>
+      <c r="B10" s="6">
+        <f>10 * SUM(B4:B9)</f>
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <f>10 * SUM(C4:C8)</f>
+      <c r="C10" s="6">
+        <f>10 * SUM(C4:C9)</f>
         <v>10</v>
       </c>
-      <c r="D9" s="6">
-        <f>10 * SUM(D4:D8)</f>
+      <c r="D10" s="6">
+        <f>10 * SUM(D4:D9)</f>
         <v>10</v>
       </c>
-      <c r="E9" s="6">
-        <f>10 * SUM(E4:E8)</f>
+      <c r="E10" s="6">
+        <f>10 * SUM(E4:E9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -587,8 +601,9 @@
     <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QF8vDG3TV2A9roX9hKKdLS/7/GDCif1lC+InOJZ7BdHAGZ43BVvDO/fZ8Y6NCeMR1s77aHlnt/wkcke0UqS4GQ==" saltValue="VgyTluRxzgYTgAPHr1Iahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X6H0PN1gOOoyHlSyplsQUYr36jMUoWQ8V/7WTGz3+ZGAddgJ3qOgBLgyGRN1TetTf034EjpTMlhRrxC2RtgyQg==" saltValue="1WsbFuM7KlKb9P1Zb/7dpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>17-03</t>
+  </si>
+  <si>
+    <t>19-03</t>
   </si>
 </sst>
 </file>
@@ -177,11 +180,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -476,13 +479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -548,40 +551,48 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <f>10 * SUM(B4:B9)</f>
+      <c r="B11" s="6">
+        <f>10 * SUM(B4:B10)</f>
         <v>10</v>
       </c>
-      <c r="C10" s="6">
-        <f>10 * SUM(C4:C9)</f>
+      <c r="C11" s="6">
+        <f>10 * SUM(C4:C10)</f>
         <v>10</v>
       </c>
-      <c r="D10" s="6">
-        <f>10 * SUM(D4:D9)</f>
+      <c r="D11" s="6">
+        <f>10 * SUM(D4:D10)</f>
         <v>10</v>
       </c>
-      <c r="E10" s="6">
-        <f>10 * SUM(E4:E9)</f>
+      <c r="E11" s="6">
+        <f>10 * SUM(E4:E10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,8 +613,9 @@
     <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X6H0PN1gOOoyHlSyplsQUYr36jMUoWQ8V/7WTGz3+ZGAddgJ3qOgBLgyGRN1TetTf034EjpTMlhRrxC2RtgyQg==" saltValue="1WsbFuM7KlKb9P1Zb/7dpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q/HC3zRlbnwgQjPnQHhwXyfzzJaQ+iEYEvf1iH1RDiiziqIgRkm1CRrZt3B4kI3IaQgR2PHAa1Aqv4+fiH0VnA==" saltValue="XLz1mwxSIoCTXeCuNsYnEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>19-03</t>
+  </si>
+  <si>
+    <t>24-03</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -566,34 +569,42 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <f>10 * SUM(B4:B10)</f>
+      <c r="B12" s="6">
+        <f>10 * SUM(B4:B11)</f>
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <f>10 * SUM(C4:C10)</f>
+      <c r="C12" s="6">
+        <f>10 * SUM(C4:C11)</f>
         <v>10</v>
       </c>
-      <c r="D11" s="6">
-        <f>10 * SUM(D4:D10)</f>
+      <c r="D12" s="6">
+        <f>10 * SUM(D4:D11)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="6">
-        <f>10 * SUM(E4:E10)</f>
+      <c r="E12" s="6">
+        <f>10 * SUM(E4:E11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -614,8 +625,9 @@
     <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q/HC3zRlbnwgQjPnQHhwXyfzzJaQ+iEYEvf1iH1RDiiziqIgRkm1CRrZt3B4kI3IaQgR2PHAa1Aqv4+fiH0VnA==" saltValue="XLz1mwxSIoCTXeCuNsYnEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YfTQR1nqLJIobk7dEh1CcnftXldbaYkEIFREOzJqJRoNl5PypikcE6wiOCn4Mz6nLMUOpzxx5v+d+QbcgqQaQQ==" saltValue="ug7x4G/l5OLb4P8s6l4fhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>24-03</t>
+  </si>
+  <si>
+    <t>26-03</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -578,34 +581,44 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <f>10 * SUM(B4:B11)</f>
+      <c r="B13" s="6">
+        <f>10 * SUM(B4:B12)</f>
         <v>10</v>
       </c>
-      <c r="C12" s="6">
-        <f>10 * SUM(C4:C11)</f>
+      <c r="C13" s="6">
+        <f>10 * SUM(C4:C12)</f>
         <v>10</v>
       </c>
-      <c r="D12" s="6">
-        <f>10 * SUM(D4:D11)</f>
-        <v>10</v>
-      </c>
-      <c r="E12" s="6">
-        <f>10 * SUM(E4:E11)</f>
+      <c r="D13" s="6">
+        <f>10 * SUM(D4:D12)</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <f>10 * SUM(E4:E12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -626,8 +639,9 @@
     <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YfTQR1nqLJIobk7dEh1CcnftXldbaYkEIFREOzJqJRoNl5PypikcE6wiOCn4Mz6nLMUOpzxx5v+d+QbcgqQaQQ==" saltValue="ug7x4G/l5OLb4P8s6l4fhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pt2pf1mrUkN13sj4ClrwzoVYvS4Z3e3LM//QOKtCHxsFX54R2uVym+Vo+HXECQ1Oky0qiiyXrBLw/p3OmWI0cg==" saltValue="7wP1+2wsAECgvSmZ1/u8Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>26-03</t>
+  </si>
+  <si>
+    <t>02-04</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -592,34 +598,42 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
-        <f>10 * SUM(B4:B12)</f>
+      <c r="B14" s="6">
+        <f>10 * SUM(B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="C13" s="6">
-        <f>10 * SUM(C4:C12)</f>
+      <c r="C14" s="6">
+        <f>10 * SUM(C4:C13)</f>
         <v>10</v>
       </c>
-      <c r="D13" s="6">
-        <f>10 * SUM(D4:D12)</f>
+      <c r="D14" s="6">
+        <f>10 * SUM(D4:D13)</f>
         <v>20</v>
       </c>
-      <c r="E13" s="6">
-        <f>10 * SUM(E4:E12)</f>
+      <c r="E14" s="6">
+        <f>10 * SUM(E4:E13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,8 +654,9 @@
     <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pt2pf1mrUkN13sj4ClrwzoVYvS4Z3e3LM//QOKtCHxsFX54R2uVym+Vo+HXECQ1Oky0qiiyXrBLw/p3OmWI0cg==" saltValue="7wP1+2wsAECgvSmZ1/u8Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cDU6Ek5pd/LoRgu3t7Y9MhB1C/eh+ggzu2feR0k49i/lbC4bQQs3BYZki1F6qHxd2fnHNoa4jMsmN4OYfVj/vQ==" saltValue="P0ZeiPGcrl8tH+e62vvq0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>02-04</t>
+  </si>
+  <si>
+    <t>07-04</t>
   </si>
 </sst>
 </file>
@@ -192,11 +195,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -491,13 +494,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,7 +601,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11"/>
@@ -607,34 +610,42 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
-        <f>10 * SUM(B4:B13)</f>
+      <c r="B15" s="6">
+        <f>10 * SUM(B4:B14)</f>
         <v>10</v>
       </c>
-      <c r="C14" s="6">
-        <f>10 * SUM(C4:C13)</f>
+      <c r="C15" s="6">
+        <f>10 * SUM(C4:C14)</f>
         <v>10</v>
       </c>
-      <c r="D14" s="6">
-        <f>10 * SUM(D4:D13)</f>
+      <c r="D15" s="6">
+        <f>10 * SUM(D4:D14)</f>
         <v>20</v>
       </c>
-      <c r="E14" s="6">
-        <f>10 * SUM(E4:E13)</f>
+      <c r="E15" s="6">
+        <f>10 * SUM(E4:E14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,8 +666,9 @@
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cDU6Ek5pd/LoRgu3t7Y9MhB1C/eh+ggzu2feR0k49i/lbC4bQQs3BYZki1F6qHxd2fnHNoa4jMsmN4OYfVj/vQ==" saltValue="P0ZeiPGcrl8tH+e62vvq0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kZ4FUGgfzidz7ld9GlLXCbCSImLFik+YSToNX0wr9+dQo3d4jYgxJX7dEGpifZRjapqklXEGO/WSidFY2n3IFw==" saltValue="pkYX0Gj9X7YSBDj9umsawQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>07-04</t>
+  </si>
+  <si>
+    <t>09-04</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -619,34 +622,44 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
-        <f>10 * SUM(B4:B14)</f>
+      <c r="B16" s="6">
+        <f>10 * SUM(B4:B15)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="6">
-        <f>10 * SUM(C4:C14)</f>
+      <c r="C16" s="6">
+        <f>10 * SUM(C4:C15)</f>
         <v>10</v>
       </c>
-      <c r="D15" s="6">
-        <f>10 * SUM(D4:D14)</f>
-        <v>20</v>
-      </c>
-      <c r="E15" s="6">
-        <f>10 * SUM(E4:E14)</f>
+      <c r="D16" s="6">
+        <f>10 * SUM(D4:D15)</f>
+        <v>30</v>
+      </c>
+      <c r="E16" s="6">
+        <f>10 * SUM(E4:E15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -667,8 +680,9 @@
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kZ4FUGgfzidz7ld9GlLXCbCSImLFik+YSToNX0wr9+dQo3d4jYgxJX7dEGpifZRjapqklXEGO/WSidFY2n3IFw==" saltValue="pkYX0Gj9X7YSBDj9umsawQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gxrryVNBwF+VgDm9tbmxe2OOaUOlWaEy43Rz33oDNn6fnFspUJW1iKtXMvjKpDa7ttP071oJ0I47gEfIqJChSw==" saltValue="nWXfMdFeCfXa71bl5cQ1eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>09-04</t>
+  </si>
+  <si>
+    <t>14-04</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -633,56 +636,65 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6">
-        <f>10 * SUM(B4:B15)</f>
+      <c r="B17" s="6">
+        <f>10 * SUM(B4:B16)</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6">
-        <f>10 * SUM(C4:C15)</f>
+      <c r="C17" s="6">
+        <f>10 * SUM(C4:C16)</f>
         <v>10</v>
       </c>
-      <c r="D16" s="6">
-        <f>10 * SUM(D4:D15)</f>
+      <c r="D17" s="6">
+        <f>10 * SUM(D4:D16)</f>
         <v>30</v>
       </c>
-      <c r="E16" s="6">
-        <f>10 * SUM(E4:E15)</f>
+      <c r="E17" s="6">
+        <f>10 * SUM(E4:E16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gxrryVNBwF+VgDm9tbmxe2OOaUOlWaEy43Rz33oDNn6fnFspUJW1iKtXMvjKpDa7ttP071oJ0I47gEfIqJChSw==" saltValue="nWXfMdFeCfXa71bl5cQ1eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2IKJccx5pKOsVJNyPImNmReEi4lrGzoLWNptV2scfS8aSGNvc9CSFxJ29HuxugVlqdIaE/Qf+VC2UwfcyWW3+Q==" saltValue="OQO9Z34jNFkrJ6CY5AxQkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>14-04</t>
+  </si>
+  <si>
+    <t>16-04</t>
+  </si>
+  <si>
+    <t>21-04</t>
+  </si>
+  <si>
+    <t>23-04</t>
   </si>
 </sst>
 </file>
@@ -487,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -645,36 +654,63 @@
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
-        <f>10 * SUM(B4:B16)</f>
+      <c r="B20" s="6">
+        <f>10 * SUM(B4:B19)</f>
+        <v>30</v>
+      </c>
+      <c r="C20" s="6">
+        <f>10 * SUM(C4:C19)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="6">
-        <f>10 * SUM(C4:C16)</f>
-        <v>10</v>
-      </c>
-      <c r="D17" s="6">
-        <f>10 * SUM(D4:D16)</f>
-        <v>30</v>
-      </c>
-      <c r="E17" s="6">
-        <f>10 * SUM(E4:E16)</f>
+      <c r="D20" s="6">
+        <f>10 * SUM(D4:D19)</f>
+        <v>40</v>
+      </c>
+      <c r="E20" s="6">
+        <f>10 * SUM(E4:E19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -693,8 +729,11 @@
     <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2IKJccx5pKOsVJNyPImNmReEi4lrGzoLWNptV2scfS8aSGNvc9CSFxJ29HuxugVlqdIaE/Qf+VC2UwfcyWW3+Q==" saltValue="OQO9Z34jNFkrJ6CY5AxQkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U9OFNnuH0TZ1prGHYAp8kx5c2jPW5gPl8fvGwoTN9EC0ZGqJbH2geZ7R6j3IRxwjDN5Q0LvbM21RU4dWVqrpXw==" saltValue="PeL1wkA58TwpjFKYxbrZaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>23-04</t>
+  </si>
+  <si>
+    <t>28-04</t>
+  </si>
+  <si>
+    <t>30-04</t>
+  </si>
+  <si>
+    <t>05-05</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -215,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -684,36 +702,62 @@
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="6">
-        <f>10 * SUM(B4:B19)</f>
-        <v>30</v>
-      </c>
-      <c r="C20" s="6">
-        <f>10 * SUM(C4:C19)</f>
+      <c r="B23" s="6">
+        <f>10 * SUM(B4:B22)</f>
+        <v>40</v>
+      </c>
+      <c r="C23" s="6">
+        <f>10 * SUM(C4:C22)</f>
         <v>10</v>
       </c>
-      <c r="D20" s="6">
-        <f>10 * SUM(D4:D19)</f>
+      <c r="D23" s="6">
+        <f>10 * SUM(D4:D22)</f>
         <v>40</v>
       </c>
-      <c r="E20" s="6">
-        <f>10 * SUM(E4:E19)</f>
+      <c r="E23" s="6">
+        <f>10 * SUM(E4:E22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,8 +776,11 @@
     <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U9OFNnuH0TZ1prGHYAp8kx5c2jPW5gPl8fvGwoTN9EC0ZGqJbH2geZ7R6j3IRxwjDN5Q0LvbM21RU4dWVqrpXw==" saltValue="PeL1wkA58TwpjFKYxbrZaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VZJ6YEXFuDt+kaZyv0b4KgcX4EjfGI0EiNxop9iA7xoTAMIUAhjZDdtGFoc9Fcl04D7rf6OTMqfMa2VzI/pV3Q==" saltValue="yClV3ZqYtrKyeVmtCoTEdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>05-05</t>
+  </si>
+  <si>
+    <t>07-05</t>
   </si>
 </sst>
 </file>
@@ -228,11 +231,11 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -527,13 +530,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +714,7 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="11"/>
@@ -731,34 +734,42 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6">
-        <f>10 * SUM(B4:B22)</f>
+      <c r="B24" s="6">
+        <f>10 * SUM(B4:B23)</f>
         <v>40</v>
       </c>
-      <c r="C23" s="6">
-        <f>10 * SUM(C4:C22)</f>
+      <c r="C24" s="6">
+        <f>10 * SUM(C4:C23)</f>
         <v>10</v>
       </c>
-      <c r="D23" s="6">
-        <f>10 * SUM(D4:D22)</f>
+      <c r="D24" s="6">
+        <f>10 * SUM(D4:D23)</f>
         <v>40</v>
       </c>
-      <c r="E23" s="6">
-        <f>10 * SUM(E4:E22)</f>
+      <c r="E24" s="6">
+        <f>10 * SUM(E4:E23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -767,20 +778,21 @@
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VZJ6YEXFuDt+kaZyv0b4KgcX4EjfGI0EiNxop9iA7xoTAMIUAhjZDdtGFoc9Fcl04D7rf6OTMqfMa2VzI/pV3Q==" saltValue="yClV3ZqYtrKyeVmtCoTEdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SNjAzJ3gWoxh4bcQlWuFFDbLOi/Ohqn/gPzQ0FMuPal+8OCgjuDttFyofPK90EW8PJoLIJJsVdxJ5Gw28rrm7w==" saltValue="MRiVImI92r1RlV/1zJwjDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>07-05</t>
+  </si>
+  <si>
+    <t>12-05</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -743,34 +746,42 @@
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6">
-        <f>10 * SUM(B4:B23)</f>
+      <c r="B25" s="6">
+        <f>10 * SUM(B4:B24)</f>
         <v>40</v>
       </c>
-      <c r="C24" s="6">
-        <f>10 * SUM(C4:C23)</f>
+      <c r="C25" s="6">
+        <f>10 * SUM(C4:C24)</f>
         <v>10</v>
       </c>
-      <c r="D24" s="6">
-        <f>10 * SUM(D4:D23)</f>
+      <c r="D25" s="6">
+        <f>10 * SUM(D4:D24)</f>
         <v>40</v>
       </c>
-      <c r="E24" s="6">
-        <f>10 * SUM(E4:E23)</f>
+      <c r="E25" s="6">
+        <f>10 * SUM(E4:E24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -778,21 +789,48 @@
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SNjAzJ3gWoxh4bcQlWuFFDbLOi/Ohqn/gPzQ0FMuPal+8OCgjuDttFyofPK90EW8PJoLIJJsVdxJ5Gw28rrm7w==" saltValue="MRiVImI92r1RlV/1zJwjDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9V8cKLHJerJbRYUCfyK39C2fs/KtdzgvbmFjnUA9KoJAI8fHjDSNg/Uk9QLmMFqB0CPch8OC8A3Yf/243bCccg==" saltValue="hBOZngp2YjfubV4QA0q3kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/MeetingMinutes/PiggyBank.xlsx
+++ b/MeetingMinutes/PiggyBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Bảng bỏ heo đi muộn</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>12-05</t>
+  </si>
+  <si>
+    <t>19-05</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -217,9 +220,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,13 +533,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,203 +563,205 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -830,7 +832,7 @@
       <c r="A46" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9V8cKLHJerJbRYUCfyK39C2fs/KtdzgvbmFjnUA9KoJAI8fHjDSNg/Uk9QLmMFqB0CPch8OC8A3Yf/243bCccg==" saltValue="hBOZngp2YjfubV4QA0q3kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3GuCHdlvMKRrDSVJOHMP7/ipwnvdx/xmWTUoVO6fYmc92WkMIE/kQkpfKu4fsq52kQ4/hUcdTuNu8l+iW3qVig==" saltValue="2rqLXZEXum9LUsMjW9zUPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
